--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3171.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3171.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.274767816507388</v>
+        <v>1.018172740936279</v>
       </c>
       <c r="B1">
-        <v>1.411449928852817</v>
+        <v>2.293184518814087</v>
       </c>
       <c r="C1">
-        <v>1.68830868668632</v>
+        <v>4.776578426361084</v>
       </c>
       <c r="D1">
-        <v>2.975731506410611</v>
+        <v>1.504894971847534</v>
       </c>
       <c r="E1">
-        <v>8.01803481531539</v>
+        <v>1.274855852127075</v>
       </c>
     </row>
   </sheetData>
